--- a/RAJANIISH_STREAMLITE/multi_tab_excel.xlsx
+++ b/RAJANIISH_STREAMLITE/multi_tab_excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8093" uniqueCount="2297">
   <si>
     <t>date</t>
   </si>
@@ -6899,6 +6899,12 @@
   </si>
   <si>
     <t>act_point_cap</t>
+  </si>
+  <si>
+    <t>max_P</t>
+  </si>
+  <si>
+    <t>max_L</t>
   </si>
   <si>
     <t>act_point_cap_pct</t>
@@ -50636,13 +50642,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -50676,8 +50682,14 @@
       <c r="K1" s="1" t="s">
         <v>2294</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>730</v>
       </c>
@@ -50697,22 +50709,28 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>2363</v>
+        <v>2461</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2">
-        <v>3562.18</v>
+        <v>3252.37</v>
       </c>
       <c r="J2">
         <v>2771</v>
       </c>
       <c r="K2">
+        <v>1211</v>
+      </c>
+      <c r="L2">
+        <v>-171</v>
+      </c>
+      <c r="M2">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>696</v>
       </c>
@@ -50732,22 +50750,28 @@
         <v>52</v>
       </c>
       <c r="G3">
-        <v>2498</v>
+        <v>2616</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I3">
-        <v>575.9</v>
+        <v>1039.3</v>
       </c>
       <c r="J3">
         <v>458</v>
       </c>
       <c r="K3">
+        <v>406</v>
+      </c>
+      <c r="L3">
+        <v>-97</v>
+      </c>
+      <c r="M3">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>692</v>
       </c>
@@ -50767,22 +50791,28 @@
         <v>44</v>
       </c>
       <c r="G4">
-        <v>2494</v>
+        <v>2617</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4">
-        <v>3853.2</v>
+        <v>4927.05</v>
       </c>
       <c r="J4">
         <v>1475</v>
       </c>
       <c r="K4">
+        <v>1344</v>
+      </c>
+      <c r="L4">
+        <v>-613</v>
+      </c>
+      <c r="M4">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>707</v>
       </c>
@@ -50802,22 +50832,28 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>2494</v>
+        <v>2605</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>2437.75</v>
+        <v>1917.75</v>
       </c>
       <c r="J5">
         <v>1724</v>
       </c>
       <c r="K5">
+        <v>981</v>
+      </c>
+      <c r="L5">
+        <v>-362</v>
+      </c>
+      <c r="M5">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>706</v>
       </c>
@@ -50837,22 +50873,28 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>2511</v>
+        <v>2608</v>
       </c>
       <c r="H6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>628.9000000000001</v>
+        <v>623.2</v>
       </c>
       <c r="J6">
         <v>421</v>
       </c>
       <c r="K6">
+        <v>227</v>
+      </c>
+      <c r="L6">
+        <v>-60</v>
+      </c>
+      <c r="M6">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>710</v>
       </c>
@@ -50872,22 +50914,28 @@
         <v>33</v>
       </c>
       <c r="G7">
-        <v>2424</v>
+        <v>2597</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>2164.35</v>
+        <v>5253.6</v>
       </c>
       <c r="J7">
         <v>-300</v>
       </c>
       <c r="K7">
+        <v>670</v>
+      </c>
+      <c r="L7">
+        <v>-304</v>
+      </c>
+      <c r="M7">
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>687</v>
       </c>
@@ -50907,22 +50955,28 @@
         <v>57</v>
       </c>
       <c r="G8">
-        <v>2523</v>
+        <v>2619</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>1412.41</v>
+        <v>1317.48</v>
       </c>
       <c r="J8">
         <v>1295</v>
       </c>
       <c r="K8">
+        <v>716</v>
+      </c>
+      <c r="L8">
+        <v>-165</v>
+      </c>
+      <c r="M8">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>688</v>
       </c>
@@ -50942,22 +50996,28 @@
         <v>56</v>
       </c>
       <c r="G9">
-        <v>2557</v>
+        <v>2618</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9">
-        <v>6537.8</v>
+        <v>5707.5</v>
       </c>
       <c r="J9">
         <v>5428</v>
       </c>
       <c r="K9">
+        <v>1777</v>
+      </c>
+      <c r="L9">
+        <v>-525</v>
+      </c>
+      <c r="M9">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>695</v>
       </c>
@@ -50977,22 +51037,28 @@
         <v>59</v>
       </c>
       <c r="G10">
-        <v>2548</v>
+        <v>2616</v>
       </c>
       <c r="H10">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10">
-        <v>682.16</v>
+        <v>839.91</v>
       </c>
       <c r="J10">
         <v>206</v>
       </c>
       <c r="K10">
+        <v>118</v>
+      </c>
+      <c r="L10">
+        <v>-59</v>
+      </c>
+      <c r="M10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>690</v>
       </c>
@@ -51012,22 +51078,28 @@
         <v>41</v>
       </c>
       <c r="G11">
-        <v>2572</v>
+        <v>2618</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11">
-        <v>178.8</v>
+        <v>190.2</v>
       </c>
       <c r="J11">
         <v>-199</v>
       </c>
       <c r="K11">
+        <v>83</v>
+      </c>
+      <c r="L11">
+        <v>-53</v>
+      </c>
+      <c r="M11">
         <v>-111</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>708</v>
       </c>
@@ -51047,22 +51119,28 @@
         <v>54</v>
       </c>
       <c r="G12">
-        <v>2484</v>
+        <v>2604</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I12">
-        <v>3378.820000000001</v>
+        <v>3420.27</v>
       </c>
       <c r="J12">
         <v>2137</v>
       </c>
       <c r="K12">
+        <v>843</v>
+      </c>
+      <c r="L12">
+        <v>-253</v>
+      </c>
+      <c r="M12">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>729</v>
       </c>
@@ -51082,22 +51160,28 @@
         <v>47</v>
       </c>
       <c r="G13">
-        <v>2400</v>
+        <v>2463</v>
       </c>
       <c r="H13">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I13">
-        <v>723.0000000000001</v>
+        <v>942.3</v>
       </c>
       <c r="J13">
         <v>376</v>
       </c>
       <c r="K13">
+        <v>246</v>
+      </c>
+      <c r="L13">
+        <v>-77</v>
+      </c>
+      <c r="M13">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>691</v>
       </c>
@@ -51117,22 +51201,28 @@
         <v>44</v>
       </c>
       <c r="G14">
-        <v>2375</v>
+        <v>2618</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I14">
-        <v>173.15</v>
+        <v>143.7</v>
       </c>
       <c r="J14">
         <v>-83</v>
       </c>
       <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>-30</v>
+      </c>
+      <c r="M14">
         <v>-48</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>716</v>
       </c>
@@ -51152,22 +51242,28 @@
         <v>44</v>
       </c>
       <c r="G15">
-        <v>2478</v>
+        <v>2587</v>
       </c>
       <c r="H15">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I15">
-        <v>4294.7</v>
+        <v>2752.65</v>
       </c>
       <c r="J15">
         <v>-117</v>
       </c>
       <c r="K15">
+        <v>1168</v>
+      </c>
+      <c r="L15">
+        <v>-528</v>
+      </c>
+      <c r="M15">
         <v>-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>715</v>
       </c>
@@ -51187,22 +51283,28 @@
         <v>39</v>
       </c>
       <c r="G16">
-        <v>2520</v>
+        <v>2588</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I16">
-        <v>3459.1</v>
+        <v>3156.9</v>
       </c>
       <c r="J16">
         <v>595</v>
       </c>
       <c r="K16">
+        <v>1144</v>
+      </c>
+      <c r="L16">
+        <v>-251</v>
+      </c>
+      <c r="M16">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>697</v>
       </c>
@@ -51222,22 +51324,28 @@
         <v>48</v>
       </c>
       <c r="G17">
-        <v>2582</v>
+        <v>2615</v>
       </c>
       <c r="H17">
         <v>51</v>
       </c>
       <c r="I17">
-        <v>2218.9</v>
+        <v>1592.22</v>
       </c>
       <c r="J17">
         <v>513</v>
       </c>
       <c r="K17">
+        <v>790</v>
+      </c>
+      <c r="L17">
+        <v>-343</v>
+      </c>
+      <c r="M17">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>684</v>
       </c>
@@ -51257,22 +51365,28 @@
         <v>61</v>
       </c>
       <c r="G18">
-        <v>2522</v>
+        <v>2619</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18">
-        <v>1277.82</v>
+        <v>1536.3</v>
       </c>
       <c r="J18">
         <v>927</v>
       </c>
       <c r="K18">
+        <v>689</v>
+      </c>
+      <c r="L18">
+        <v>-90</v>
+      </c>
+      <c r="M18">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>728</v>
       </c>
@@ -51292,22 +51406,28 @@
         <v>57</v>
       </c>
       <c r="G19">
-        <v>2368</v>
+        <v>2478</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I19">
-        <v>817.8999999999999</v>
+        <v>1218.55</v>
       </c>
       <c r="J19">
         <v>545</v>
       </c>
       <c r="K19">
+        <v>283</v>
+      </c>
+      <c r="L19">
+        <v>-101</v>
+      </c>
+      <c r="M19">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>699</v>
       </c>
@@ -51327,22 +51447,28 @@
         <v>48</v>
       </c>
       <c r="G20">
-        <v>2513</v>
+        <v>2610</v>
       </c>
       <c r="H20">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20">
-        <v>1031.4</v>
+        <v>814.6500000000001</v>
       </c>
       <c r="J20">
         <v>201</v>
       </c>
       <c r="K20">
+        <v>271</v>
+      </c>
+      <c r="L20">
+        <v>-165</v>
+      </c>
+      <c r="M20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>734</v>
       </c>
@@ -51362,22 +51488,28 @@
         <v>44</v>
       </c>
       <c r="G21">
-        <v>2142</v>
+        <v>2248</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21">
-        <v>327.1</v>
+        <v>170</v>
       </c>
       <c r="J21">
         <v>-28</v>
       </c>
       <c r="K21">
+        <v>126</v>
+      </c>
+      <c r="L21">
+        <v>-57</v>
+      </c>
+      <c r="M21">
         <v>-9</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>711</v>
       </c>
@@ -51397,22 +51529,28 @@
         <v>38</v>
       </c>
       <c r="G22">
-        <v>2427</v>
+        <v>2596</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I22">
-        <v>1624.45</v>
+        <v>1330.45</v>
       </c>
       <c r="J22">
         <v>-681</v>
       </c>
       <c r="K22">
+        <v>544</v>
+      </c>
+      <c r="L22">
+        <v>-231</v>
+      </c>
+      <c r="M22">
         <v>-42</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>700</v>
       </c>
@@ -51432,22 +51570,28 @@
         <v>68</v>
       </c>
       <c r="G23">
-        <v>2584</v>
+        <v>2610</v>
       </c>
       <c r="H23">
         <v>60</v>
       </c>
       <c r="I23">
-        <v>448.95</v>
+        <v>345.8</v>
       </c>
       <c r="J23">
         <v>286</v>
       </c>
       <c r="K23">
+        <v>94</v>
+      </c>
+      <c r="L23">
+        <v>-91</v>
+      </c>
+      <c r="M23">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>702</v>
       </c>
@@ -51467,22 +51611,28 @@
         <v>48</v>
       </c>
       <c r="G24">
-        <v>2464</v>
+        <v>2610</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I24">
-        <v>1798.55</v>
+        <v>1576.5</v>
       </c>
       <c r="J24">
         <v>168</v>
       </c>
       <c r="K24">
+        <v>364</v>
+      </c>
+      <c r="L24">
+        <v>-187</v>
+      </c>
+      <c r="M24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>705</v>
       </c>
@@ -51502,22 +51652,28 @@
         <v>47</v>
       </c>
       <c r="G25">
-        <v>2567</v>
+        <v>2609</v>
       </c>
       <c r="H25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I25">
-        <v>738.3</v>
+        <v>840.05</v>
       </c>
       <c r="J25">
         <v>338</v>
       </c>
       <c r="K25">
+        <v>217</v>
+      </c>
+      <c r="L25">
+        <v>-52</v>
+      </c>
+      <c r="M25">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>698</v>
       </c>
@@ -51537,22 +51693,28 @@
         <v>54</v>
       </c>
       <c r="G26">
-        <v>2288</v>
+        <v>2615</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I26">
-        <v>1453.95</v>
+        <v>383.95</v>
       </c>
       <c r="J26">
         <v>727</v>
       </c>
       <c r="K26">
+        <v>452</v>
+      </c>
+      <c r="L26">
+        <v>-172</v>
+      </c>
+      <c r="M26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>721</v>
       </c>
@@ -51572,22 +51734,28 @@
         <v>50</v>
       </c>
       <c r="G27">
-        <v>2466</v>
+        <v>2576</v>
       </c>
       <c r="H27">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I27">
-        <v>1350.02</v>
+        <v>1168.15</v>
       </c>
       <c r="J27">
         <v>701</v>
       </c>
       <c r="K27">
+        <v>624</v>
+      </c>
+      <c r="L27">
+        <v>-124</v>
+      </c>
+      <c r="M27">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>725</v>
       </c>
@@ -51607,22 +51775,28 @@
         <v>47</v>
       </c>
       <c r="G28">
-        <v>2450</v>
+        <v>2545</v>
       </c>
       <c r="H28">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I28">
-        <v>287.55</v>
+        <v>130.55</v>
       </c>
       <c r="J28">
         <v>194</v>
       </c>
       <c r="K28">
+        <v>116</v>
+      </c>
+      <c r="L28">
+        <v>-21</v>
+      </c>
+      <c r="M28">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>693</v>
       </c>
@@ -51642,22 +51816,28 @@
         <v>65</v>
       </c>
       <c r="G29">
-        <v>2511</v>
+        <v>2616</v>
       </c>
       <c r="H29">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I29">
-        <v>646.3000000000001</v>
+        <v>663</v>
       </c>
       <c r="J29">
         <v>333</v>
       </c>
       <c r="K29">
+        <v>260</v>
+      </c>
+      <c r="L29">
+        <v>-87</v>
+      </c>
+      <c r="M29">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>709</v>
       </c>
@@ -51677,22 +51857,28 @@
         <v>52</v>
       </c>
       <c r="G30">
-        <v>2505</v>
+        <v>2597</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I30">
-        <v>1212.1</v>
+        <v>981.6</v>
       </c>
       <c r="J30">
         <v>671</v>
       </c>
       <c r="K30">
+        <v>505</v>
+      </c>
+      <c r="L30">
+        <v>-130</v>
+      </c>
+      <c r="M30">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>701</v>
       </c>
@@ -51712,22 +51898,28 @@
         <v>63</v>
       </c>
       <c r="G31">
-        <v>2496</v>
+        <v>2610</v>
       </c>
       <c r="H31">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31">
-        <v>2480.7</v>
+        <v>2717.93</v>
       </c>
       <c r="J31">
         <v>1813</v>
       </c>
       <c r="K31">
+        <v>601</v>
+      </c>
+      <c r="L31">
+        <v>-121</v>
+      </c>
+      <c r="M31">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>732</v>
       </c>
@@ -51747,22 +51939,28 @@
         <v>55</v>
       </c>
       <c r="G32">
-        <v>2235</v>
+        <v>2345</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I32">
-        <v>6057.15</v>
+        <v>4493.65</v>
       </c>
       <c r="J32">
         <v>2314</v>
       </c>
       <c r="K32">
+        <v>1765</v>
+      </c>
+      <c r="L32">
+        <v>-965</v>
+      </c>
+      <c r="M32">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>713</v>
       </c>
@@ -51782,22 +51980,28 @@
         <v>50</v>
       </c>
       <c r="G33">
-        <v>2567</v>
+        <v>2596</v>
       </c>
       <c r="H33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33">
-        <v>1234.75</v>
+        <v>1340.85</v>
       </c>
       <c r="J33">
         <v>746</v>
       </c>
       <c r="K33">
+        <v>465</v>
+      </c>
+      <c r="L33">
+        <v>-61</v>
+      </c>
+      <c r="M33">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>724</v>
       </c>
@@ -51817,22 +52021,28 @@
         <v>44</v>
       </c>
       <c r="G34">
-        <v>2513</v>
+        <v>2546</v>
       </c>
       <c r="H34">
         <v>58</v>
       </c>
       <c r="I34">
-        <v>4722.75</v>
+        <v>5464.55</v>
       </c>
       <c r="J34">
         <v>1820</v>
       </c>
       <c r="K34">
+        <v>1302</v>
+      </c>
+      <c r="L34">
+        <v>-668</v>
+      </c>
+      <c r="M34">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>717</v>
       </c>
@@ -51852,22 +52062,28 @@
         <v>64</v>
       </c>
       <c r="G35">
-        <v>2415</v>
+        <v>2584</v>
       </c>
       <c r="H35">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I35">
-        <v>1947.55</v>
+        <v>1968.85</v>
       </c>
       <c r="J35">
         <v>1349</v>
       </c>
       <c r="K35">
+        <v>453</v>
+      </c>
+      <c r="L35">
+        <v>-122</v>
+      </c>
+      <c r="M35">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>731</v>
       </c>
@@ -51887,13 +52103,13 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <v>2352</v>
+        <v>2367</v>
       </c>
       <c r="H36">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>726</v>
       </c>
@@ -51913,22 +52129,28 @@
         <v>52</v>
       </c>
       <c r="G37">
-        <v>2226</v>
+        <v>2525</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I37">
-        <v>80.14999999999999</v>
+        <v>202.5</v>
       </c>
       <c r="J37">
         <v>-7</v>
       </c>
       <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>-11</v>
+      </c>
+      <c r="M37">
         <v>-9</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>712</v>
       </c>
@@ -51948,22 +52170,28 @@
         <v>47</v>
       </c>
       <c r="G38">
-        <v>2504</v>
+        <v>2596</v>
       </c>
       <c r="H38">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38">
-        <v>120.35</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="J38">
         <v>-59</v>
       </c>
       <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38">
+        <v>-27</v>
+      </c>
+      <c r="M38">
         <v>-49</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>727</v>
       </c>
@@ -51983,22 +52211,28 @@
         <v>36</v>
       </c>
       <c r="G39">
-        <v>2333</v>
+        <v>2512</v>
       </c>
       <c r="H39">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I39">
-        <v>85.42</v>
+        <v>168.2</v>
       </c>
       <c r="J39">
         <v>-48</v>
       </c>
       <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>-18</v>
+      </c>
+      <c r="M39">
         <v>-56</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>722</v>
       </c>
@@ -52018,22 +52252,28 @@
         <v>56</v>
       </c>
       <c r="G40">
-        <v>2453</v>
+        <v>2573</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I40">
-        <v>2136.23</v>
+        <v>2510.38</v>
       </c>
       <c r="J40">
         <v>1613</v>
       </c>
       <c r="K40">
+        <v>844</v>
+      </c>
+      <c r="L40">
+        <v>-130</v>
+      </c>
+      <c r="M40">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>733</v>
       </c>
@@ -52053,22 +52293,28 @@
         <v>50</v>
       </c>
       <c r="G41">
-        <v>2278</v>
+        <v>2296</v>
       </c>
       <c r="H41">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I41">
-        <v>796.8</v>
+        <v>863.0999999999999</v>
       </c>
       <c r="J41">
         <v>236</v>
       </c>
       <c r="K41">
+        <v>216</v>
+      </c>
+      <c r="L41">
+        <v>-107</v>
+      </c>
+      <c r="M41">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>714</v>
       </c>
@@ -52088,22 +52334,28 @@
         <v>64</v>
       </c>
       <c r="G42">
-        <v>2567</v>
+        <v>2594</v>
       </c>
       <c r="H42">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I42">
-        <v>430.2</v>
+        <v>507.95</v>
       </c>
       <c r="J42">
         <v>192</v>
       </c>
       <c r="K42">
+        <v>81</v>
+      </c>
+      <c r="L42">
+        <v>-44</v>
+      </c>
+      <c r="M42">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>718</v>
       </c>
@@ -52123,22 +52375,28 @@
         <v>45</v>
       </c>
       <c r="G43">
-        <v>2465</v>
+        <v>2584</v>
       </c>
       <c r="H43">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I43">
-        <v>671.2499999999999</v>
+        <v>879.9</v>
       </c>
       <c r="J43">
         <v>172</v>
       </c>
       <c r="K43">
+        <v>142</v>
+      </c>
+      <c r="L43">
+        <v>-74</v>
+      </c>
+      <c r="M43">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>703</v>
       </c>
@@ -52158,22 +52416,28 @@
         <v>61</v>
       </c>
       <c r="G44">
-        <v>2275</v>
+        <v>2610</v>
       </c>
       <c r="H44">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I44">
-        <v>695.1500000000001</v>
+        <v>1079.45</v>
       </c>
       <c r="J44">
         <v>354</v>
       </c>
       <c r="K44">
+        <v>200</v>
+      </c>
+      <c r="L44">
+        <v>-57</v>
+      </c>
+      <c r="M44">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>685</v>
       </c>
@@ -52193,22 +52457,28 @@
         <v>48</v>
       </c>
       <c r="G45">
-        <v>2509</v>
+        <v>2619</v>
       </c>
       <c r="H45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I45">
-        <v>533.3</v>
+        <v>502.65</v>
       </c>
       <c r="J45">
         <v>218</v>
       </c>
       <c r="K45">
+        <v>172</v>
+      </c>
+      <c r="L45">
+        <v>-50</v>
+      </c>
+      <c r="M45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>694</v>
       </c>
@@ -52228,22 +52498,28 @@
         <v>63</v>
       </c>
       <c r="G46">
-        <v>2587</v>
+        <v>2616</v>
       </c>
       <c r="H46">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I46">
-        <v>104.35</v>
+        <v>110</v>
       </c>
       <c r="J46">
         <v>81</v>
       </c>
       <c r="K46">
+        <v>66</v>
+      </c>
+      <c r="L46">
+        <v>-15</v>
+      </c>
+      <c r="M46">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>719</v>
       </c>
@@ -52263,22 +52539,28 @@
         <v>68</v>
       </c>
       <c r="G47">
-        <v>2470</v>
+        <v>2580</v>
       </c>
       <c r="H47">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I47">
-        <v>2572.37</v>
+        <v>2912.07</v>
       </c>
       <c r="J47">
         <v>1314</v>
       </c>
       <c r="K47">
+        <v>558</v>
+      </c>
+      <c r="L47">
+        <v>-184</v>
+      </c>
+      <c r="M47">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>720</v>
       </c>
@@ -52298,22 +52580,28 @@
         <v>50</v>
       </c>
       <c r="G48">
-        <v>2470</v>
+        <v>2580</v>
       </c>
       <c r="H48">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I48">
-        <v>1253.6</v>
+        <v>775.6</v>
       </c>
       <c r="J48">
         <v>642</v>
       </c>
       <c r="K48">
+        <v>372</v>
+      </c>
+      <c r="L48">
+        <v>-100</v>
+      </c>
+      <c r="M48">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>689</v>
       </c>
@@ -52333,22 +52621,28 @@
         <v>70</v>
       </c>
       <c r="G49">
-        <v>2495</v>
+        <v>2618</v>
       </c>
       <c r="H49">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I49">
-        <v>3279.3</v>
+        <v>3417.1</v>
       </c>
       <c r="J49">
         <v>2468</v>
       </c>
       <c r="K49">
+        <v>608</v>
+      </c>
+      <c r="L49">
+        <v>-155</v>
+      </c>
+      <c r="M49">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>686</v>
       </c>
@@ -52368,22 +52662,28 @@
         <v>50</v>
       </c>
       <c r="G50">
-        <v>2499</v>
+        <v>2619</v>
       </c>
       <c r="H50">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I50">
-        <v>6527.75</v>
+        <v>6749.75</v>
       </c>
       <c r="J50">
         <v>3845</v>
       </c>
       <c r="K50">
+        <v>2065</v>
+      </c>
+      <c r="L50">
+        <v>-568</v>
+      </c>
+      <c r="M50">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>704</v>
       </c>
@@ -52403,22 +52703,28 @@
         <v>40</v>
       </c>
       <c r="G51">
-        <v>2518</v>
+        <v>2609</v>
       </c>
       <c r="H51">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I51">
-        <v>352.15</v>
+        <v>17.50999999999999</v>
       </c>
       <c r="J51">
         <v>76</v>
       </c>
       <c r="K51">
+        <v>269</v>
+      </c>
+      <c r="L51">
+        <v>-58</v>
+      </c>
+      <c r="M51">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>723</v>
       </c>
@@ -52438,18 +52744,24 @@
         <v>54</v>
       </c>
       <c r="G52">
-        <v>2457</v>
+        <v>2567</v>
       </c>
       <c r="H52">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I52">
-        <v>467.46</v>
+        <v>336.8100000000001</v>
       </c>
       <c r="J52">
         <v>213</v>
       </c>
       <c r="K52">
+        <v>133</v>
+      </c>
+      <c r="L52">
+        <v>-62</v>
+      </c>
+      <c r="M52">
         <v>46</v>
       </c>
     </row>

--- a/RAJANIISH_STREAMLITE/multi_tab_excel.xlsx
+++ b/RAJANIISH_STREAMLITE/multi_tab_excel.xlsx
@@ -5858,7 +5858,7 @@
         <v>100</v>
       </c>
       <c r="G2">
-        <v>1.357638888992369</v>
+        <v>5.357638888992369</v>
       </c>
       <c r="I2">
         <v>-29.150146484375</v>
@@ -5898,7 +5898,7 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>2.458333333488554</v>
+        <v>6.458333333488554</v>
       </c>
       <c r="I4">
         <v>11.35009765625</v>
@@ -5924,10 +5924,10 @@
         <v>100</v>
       </c>
       <c r="G5">
-        <v>2.447916666511446</v>
+        <v>6.447916666511446</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I5">
         <v>-2.60009765625</v>
@@ -5979,7 +5979,7 @@
         <v>100</v>
       </c>
       <c r="G7">
-        <v>2.572916666511446</v>
+        <v>6.572916666511446</v>
       </c>
       <c r="I7">
         <v>310.2998046875</v>
@@ -6002,7 +6002,7 @@
         <v>100</v>
       </c>
       <c r="G8">
-        <v>2.517361111007631</v>
+        <v>6.517361111007631</v>
       </c>
       <c r="I8">
         <v>-22.25</v>
@@ -6025,7 +6025,7 @@
         <v>100</v>
       </c>
       <c r="G9">
-        <v>2.517361111007631</v>
+        <v>6.517361111007631</v>
       </c>
       <c r="I9">
         <v>-546.75</v>
@@ -6051,10 +6051,10 @@
         <v>100</v>
       </c>
       <c r="G10">
-        <v>2.576388888992369</v>
+        <v>6.576388888992369</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>-8.4000244140625</v>
@@ -6092,10 +6092,10 @@
         <v>100</v>
       </c>
       <c r="G11">
-        <v>2.517361111007631</v>
+        <v>6.517361111007631</v>
       </c>
       <c r="H11">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -6127,7 +6127,7 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>2.503472222015262</v>
+        <v>6.503472222015262</v>
       </c>
       <c r="I12">
         <v>2.35009765625</v>
@@ -6153,10 +6153,10 @@
         <v>100</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I13">
         <v>11.550048828125</v>
@@ -6194,10 +6194,10 @@
         <v>100</v>
       </c>
       <c r="G14">
-        <v>2.576388888992369</v>
+        <v>6.576388888992369</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>12.04998779296875</v>
@@ -6232,7 +6232,7 @@
         <v>100</v>
       </c>
       <c r="G15">
-        <v>2.538194444496185</v>
+        <v>6.538194444496185</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6255,10 +6255,10 @@
         <v>100</v>
       </c>
       <c r="G16">
-        <v>2.583333333488554</v>
+        <v>6.583333333488554</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>300.2001953125</v>
@@ -6293,7 +6293,7 @@
         <v>100</v>
       </c>
       <c r="G17">
-        <v>2.489583333488554</v>
+        <v>6.489583333488554</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6333,10 +6333,10 @@
         <v>100</v>
       </c>
       <c r="G19">
-        <v>2.427083333488554</v>
+        <v>6.427083333488554</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>19</v>
@@ -6371,10 +6371,10 @@
         <v>100</v>
       </c>
       <c r="G20">
-        <v>2.576388888992369</v>
+        <v>6.576388888992369</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>-4.3499755859375</v>
@@ -6412,10 +6412,10 @@
         <v>100</v>
       </c>
       <c r="G21">
-        <v>2.444444444496185</v>
+        <v>6.444444444496185</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <v>-3.60003662109375</v>
@@ -6467,7 +6467,7 @@
         <v>100</v>
       </c>
       <c r="G23">
-        <v>3.388888888992369</v>
+        <v>7.388888888992369</v>
       </c>
       <c r="I23">
         <v>39.29998779296875</v>
@@ -6493,10 +6493,10 @@
         <v>100</v>
       </c>
       <c r="G24">
-        <v>2.482638888992369</v>
+        <v>6.482638888992369</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I24">
         <v>-9.85009765625</v>
@@ -6568,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>3.361111111007631</v>
+        <v>7.361111111007631</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>-6.25</v>
@@ -6626,10 +6626,10 @@
         <v>100</v>
       </c>
       <c r="G29">
-        <v>2.434027777984738</v>
+        <v>6.434027777984738</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>5.6500244140625</v>
@@ -6664,7 +6664,7 @@
         <v>100</v>
       </c>
       <c r="G30">
-        <v>2.385416666511446</v>
+        <v>6.385416666511446</v>
       </c>
       <c r="I30">
         <v>-53.199951171875</v>
@@ -6687,7 +6687,7 @@
         <v>100</v>
       </c>
       <c r="G31">
-        <v>2.427083333488554</v>
+        <v>6.427083333488554</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -6707,7 +6707,7 @@
         <v>100</v>
       </c>
       <c r="G32">
-        <v>3.361111111007631</v>
+        <v>7.361111111007631</v>
       </c>
       <c r="I32">
         <v>58.39990234375</v>
@@ -6730,7 +6730,7 @@
         <v>100</v>
       </c>
       <c r="G33">
-        <v>2.427083333488554</v>
+        <v>6.427083333488554</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -6753,10 +6753,10 @@
         <v>100</v>
       </c>
       <c r="G34">
-        <v>2.427083333488554</v>
+        <v>6.427083333488554</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I34">
         <v>-181.05078125</v>
@@ -6791,7 +6791,7 @@
         <v>100</v>
       </c>
       <c r="G35">
-        <v>2.458333333488554</v>
+        <v>6.458333333488554</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -6814,10 +6814,10 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <v>2.458333333488554</v>
+        <v>6.458333333488554</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -6840,10 +6840,10 @@
         <v>100</v>
       </c>
       <c r="G37">
-        <v>2.572916666511446</v>
+        <v>6.572916666511446</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I37">
         <v>5.899993896484375</v>
@@ -6932,10 +6932,10 @@
         <v>100</v>
       </c>
       <c r="G41">
-        <v>2.517361111007631</v>
+        <v>6.517361111007631</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I41">
         <v>-38.5999755859375</v>
@@ -6973,10 +6973,10 @@
         <v>100</v>
       </c>
       <c r="G42">
-        <v>3.385416666511446</v>
+        <v>7.385416666511446</v>
       </c>
       <c r="H42">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I42">
         <v>26.20001220703125</v>
@@ -7011,7 +7011,7 @@
         <v>100</v>
       </c>
       <c r="G43">
-        <v>1.392361111007631</v>
+        <v>5.392361111007631</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -7031,7 +7031,7 @@
         <v>100</v>
       </c>
       <c r="G44">
-        <v>1.506944444496185</v>
+        <v>5.506944444496185</v>
       </c>
       <c r="I44">
         <v>-19</v>
@@ -7054,7 +7054,7 @@
         <v>100</v>
       </c>
       <c r="G45">
-        <v>2.496527777984738</v>
+        <v>6.496527777984738</v>
       </c>
       <c r="I45">
         <v>6.25</v>
@@ -7080,10 +7080,10 @@
         <v>100</v>
       </c>
       <c r="G46">
-        <v>2.416666666511446</v>
+        <v>6.416666666511446</v>
       </c>
       <c r="H46">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I46">
         <v>0.3000030517578125</v>
@@ -7138,10 +7138,10 @@
         <v>100</v>
       </c>
       <c r="G48">
-        <v>2.423611111007631</v>
+        <v>6.423611111007631</v>
       </c>
       <c r="H48">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I48">
         <v>88.949951171875</v>
@@ -7176,7 +7176,7 @@
         <v>100</v>
       </c>
       <c r="G49">
-        <v>2.416666666511446</v>
+        <v>6.416666666511446</v>
       </c>
       <c r="I49">
         <v>19.300048828125</v>
@@ -7219,10 +7219,10 @@
         <v>100</v>
       </c>
       <c r="G51">
-        <v>2.576388888992369</v>
+        <v>6.576388888992369</v>
       </c>
       <c r="H51">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I51">
         <v>4.649993896484375</v>
